--- a/data-constr/Gas Price_DE.xlsx
+++ b/data-constr/Gas Price_DE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danialriaz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danialriaz/Desktop/3rd Semester/03 - C24 - Machine Learning/gasprices/data-constr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052B6BCD-870C-3C4A-A160-681F90449036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94F449-627E-2D42-A089-D7CA731F2701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{95EE18A2-10C6-7440-9D72-33630D333630}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{95EE18A2-10C6-7440-9D72-33630D333630}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>Gasday</t>
   </si>
   <si>
-    <t>Gas Price</t>
+    <t>Gasprice</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:B429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
